--- a/sorel/01. bench_s3_ls/run notes.xlsx
+++ b/sorel/01. bench_s3_ls/run notes.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tmp\Work1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HERZOMJ\source\GitHub\big_data_demo\sorel\01. bench_s3_ls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BDD4EB-935A-4716-A5D5-D576E9F40F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D0C711-C189-4781-9546-69B02A0A4567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C86255B7-07AE-4159-A1DE-F8879CE0F203}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C86255B7-07AE-4159-A1DE-F8879CE0F203}"/>
   </bookViews>
   <sheets>
     <sheet name="List keys" sheetId="1" r:id="rId1"/>
+    <sheet name="Copy files" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t xml:space="preserve">Start:  </t>
   </si>
@@ -72,15 +73,28 @@
   </si>
   <si>
     <t>get-sorel-bin.sh</t>
+  </si>
+  <si>
+    <t>Data Copied (MB)</t>
+  </si>
+  <si>
+    <t>MB/Sec</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>Files/Sec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -119,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -127,16 +141,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -155,7 +170,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -168,6 +183,46 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="24" formatCode="h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -189,17 +244,42 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA2966E4-FEE0-471B-83A8-4B22530CBB02}" name="Table1" displayName="Table1" ref="A1:H3" totalsRowShown="0">
   <autoFilter ref="A1:H3" xr:uid="{DA2966E4-FEE0-471B-83A8-4B22530CBB02}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{01BAED7B-7A81-4DCA-8D60-8153B322F683}" name="Date" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{B69BD1B4-6C40-4612-B1E3-45D608293CCC}" name="Process" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{01BAED7B-7A81-4DCA-8D60-8153B322F683}" name="Date" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{B69BD1B4-6C40-4612-B1E3-45D608293CCC}" name="Process" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{8005FFF9-EE93-48A2-8DE8-290C803E3CAF}" name="System"/>
-    <tableColumn id="3" xr3:uid="{446A80FF-3FB8-4C12-92AD-B75379A22230}" name="Start:  " dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{CE01F998-4383-4051-9DB4-7BB999FDCC93}" name="End:  " dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E4B80F70-89E0-409B-A7C1-ED302638D79C}" name="Time (min)" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{446A80FF-3FB8-4C12-92AD-B75379A22230}" name="Start:  " dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{CE01F998-4383-4051-9DB4-7BB999FDCC93}" name="End:  " dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E4B80F70-89E0-409B-A7C1-ED302638D79C}" name="Time (min)" dataDxfId="10">
       <calculatedColumnFormula>(E2-D2)*24*60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5AFE96F7-DBBC-4A7A-9767-35D3F752615F}" name="Rows" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{7CF1E15A-EA4C-490C-94B7-AE67BC553536}" name="Rows/Sec" dataDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{5AFE96F7-DBBC-4A7A-9767-35D3F752615F}" name="Rows" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{7CF1E15A-EA4C-490C-94B7-AE67BC553536}" name="Rows/Sec" dataDxfId="8" dataCellStyle="Comma">
       <calculatedColumnFormula>G2/F2/60</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E572F46-409C-4691-AFA8-EE8346A11709}" name="Table13" displayName="Table13" ref="A1:J3" totalsRowShown="0">
+  <autoFilter ref="A1:J3" xr:uid="{DA2966E4-FEE0-471B-83A8-4B22530CBB02}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{7D91EB82-97DE-4D76-A5E5-585F96E3D5C3}" name="Date" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{A7149DD9-1B9B-4FCB-9273-D401D250F6BC}" name="Process" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A699E542-B38E-451C-A8A1-3348D9BECA12}" name="System"/>
+    <tableColumn id="3" xr3:uid="{566EA3C3-A4E4-45E1-BB36-61EA7C47BD36}" name="Start:  " dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A2267207-5604-4467-A908-9DC02F87F20E}" name="End:  " dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4A2958D6-4996-4381-9D1B-617F0B5E956E}" name="Time (min)" dataDxfId="3">
+      <calculatedColumnFormula>(E2-D2)*24*60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{E146107D-6AE8-4EF1-A68B-F0ADF9635F8A}" name="Files" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{49D38AD4-29B2-48F9-A241-41509369DB27}" name="Files/Sec" dataDxfId="1" dataCellStyle="Comma">
+      <calculatedColumnFormula>G2/$F2/60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E95605A0-4ABF-4AE2-9D30-5D8802BF7F6F}" name="Data Copied (MB)"/>
+    <tableColumn id="10" xr3:uid="{79B7A6C6-9724-4050-BF17-3AFD8E172A8B}" name="MB/Sec" dataDxfId="0">
+      <calculatedColumnFormula>I2/$F2/60/(1024*1024)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -505,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A45166E-828C-4157-AF81-3A05D92400A1}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -611,4 +691,123 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA2B0AC-F327-404A-B537-1167C600A620}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>45002</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="e">
+        <f t="shared" ref="H2:J3" si="0">G2/$F2/60</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" s="5" t="e">
+        <f t="shared" ref="J2:J3" si="1">I2/$F2/60/(1024*1024)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>45002</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45002.494398148148</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45002.503020833334</v>
+      </c>
+      <c r="F3" s="2">
+        <f>(E3-D3)*24*60</f>
+        <v>12.416666666977108</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5347</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
+        <v>7.1771812078742476</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4888018757</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" si="1"/>
+        <v>6.2571516061024886</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>